--- a/JPLdata/pha.xlsx
+++ b/JPLdata/pha.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -385,21 +385,24 @@
         <v>name</v>
       </c>
       <c r="B1" t="str">
+        <v>num</v>
+      </c>
+      <c r="C1" t="str">
         <v>hv/diam</v>
       </c>
-      <c r="C1" t="str">
+      <c r="D1" t="str">
         <v>num</v>
       </c>
-      <c r="D1" t="str">
+      <c r="E1" t="str">
         <v>diam(papper)</v>
       </c>
-      <c r="E1" t="str">
+      <c r="F1" t="str">
         <v>diam</v>
       </c>
-      <c r="F1" t="str">
+      <c r="G1" t="str">
         <v>eta</v>
       </c>
-      <c r="G1" t="str">
+      <c r="H1" t="str">
         <v>loss</v>
       </c>
     </row>
@@ -408,9 +411,12 @@
         <v>2003ma3</v>
       </c>
       <c r="B2" t="str">
+        <v>13</v>
+      </c>
+      <c r="C2" t="str">
         <v>21.7/136</v>
       </c>
-      <c r="D2" t="str">
+      <c r="E2" t="str">
         <v>86</v>
       </c>
     </row>
@@ -419,9 +425,12 @@
         <v>2010co1</v>
       </c>
       <c r="B3" t="str">
+        <v>60</v>
+      </c>
+      <c r="C3" t="str">
         <v>21.9/124</v>
       </c>
-      <c r="D3" t="str">
+      <c r="E3" t="str">
         <v>380/21.5,464/21.8</v>
       </c>
     </row>
@@ -430,9 +439,12 @@
         <v>20110fc81</v>
       </c>
       <c r="B4" t="str">
+        <v>13</v>
+      </c>
+      <c r="C4" t="str">
         <v>21.8/130</v>
       </c>
-      <c r="D4" t="str">
+      <c r="E4" t="str">
         <v>402</v>
       </c>
     </row>
@@ -441,9 +453,12 @@
         <v>2010fe7</v>
       </c>
       <c r="B5" t="str">
+        <v>27</v>
+      </c>
+      <c r="C5" t="str">
         <v>23.7/54</v>
       </c>
-      <c r="D5" t="str">
+      <c r="E5" t="str">
         <v>45</v>
       </c>
     </row>
@@ -452,9 +467,12 @@
         <v>2010fh81</v>
       </c>
       <c r="B6" t="str">
+        <v>40</v>
+      </c>
+      <c r="C6" t="str">
         <v>21.6/142</v>
       </c>
-      <c r="D6" t="str">
+      <c r="E6" t="str">
         <v>21.7/200</v>
       </c>
     </row>
@@ -463,9 +481,12 @@
         <v>2010gs7</v>
       </c>
       <c r="B7" t="str">
+        <v>11</v>
+      </c>
+      <c r="C7" t="str">
         <v>21.5/149</v>
       </c>
-      <c r="D7" t="str">
+      <c r="E7" t="str">
         <v>21.5/203</v>
       </c>
     </row>
@@ -474,9 +495,12 @@
         <v>2010jn71</v>
       </c>
       <c r="B8" t="str">
+        <v>27</v>
+      </c>
+      <c r="C8" t="str">
         <v>21.4/156</v>
       </c>
-      <c r="D8" t="str">
+      <c r="E8" t="str">
         <v>214</v>
       </c>
     </row>
@@ -485,9 +509,12 @@
         <v>2010kx7</v>
       </c>
       <c r="B9" t="str">
+        <v>4</v>
+      </c>
+      <c r="C9" t="str">
         <v>21.9/124</v>
       </c>
-      <c r="D9" t="str">
+      <c r="E9" t="str">
         <v>21.8/212</v>
       </c>
     </row>
@@ -496,15 +523,18 @@
         <v>2010pw58</v>
       </c>
       <c r="B10" t="str">
+        <v>51</v>
+      </c>
+      <c r="C10" t="str">
         <v>21.7/136</v>
       </c>
-      <c r="D10" t="str">
+      <c r="E10" t="str">
         <v>21.3/213</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G10"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:H10"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/JPLdata/pha.xlsx
+++ b/JPLdata/pha.xlsx
@@ -391,16 +391,16 @@
         <v>hv/diam</v>
       </c>
       <c r="D1" t="str">
-        <v>num</v>
+        <v>diam(papper)</v>
       </c>
       <c r="E1" t="str">
-        <v>diam(papper)</v>
+        <v>diam</v>
       </c>
       <c r="F1" t="str">
-        <v>diam</v>
+        <v>eta</v>
       </c>
       <c r="G1" t="str">
-        <v>eta</v>
+        <v>pv</v>
       </c>
       <c r="H1" t="str">
         <v>loss</v>
@@ -411,13 +411,25 @@
         <v>2003ma3</v>
       </c>
       <c r="B2" t="str">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C2" t="str">
         <v>21.7/136</v>
       </c>
+      <c r="D2" t="str">
+        <v>86</v>
+      </c>
       <c r="E2" t="str">
-        <v>86</v>
+        <v>993</v>
+      </c>
+      <c r="F2" t="str">
+        <v>8.17</v>
+      </c>
+      <c r="G2" t="str">
+        <v>0.00059</v>
+      </c>
+      <c r="H2" t="str">
+        <v>57</v>
       </c>
     </row>
     <row r="3">
@@ -430,8 +442,20 @@
       <c r="C3" t="str">
         <v>21.9/124</v>
       </c>
+      <c r="D3" t="str">
+        <v>380/21.5,464/21.8</v>
+      </c>
       <c r="E3" t="str">
-        <v>380/21.5,464/21.8</v>
+        <v>346</v>
+      </c>
+      <c r="F3" t="str">
+        <v>3.53</v>
+      </c>
+      <c r="G3" t="str">
+        <v>0.037</v>
+      </c>
+      <c r="H3" t="str">
+        <v>1.89</v>
       </c>
     </row>
     <row r="4">
@@ -444,8 +468,20 @@
       <c r="C4" t="str">
         <v>21.8/130</v>
       </c>
+      <c r="D4" t="str">
+        <v>402</v>
+      </c>
       <c r="E4" t="str">
-        <v>402</v>
+        <v>212</v>
+      </c>
+      <c r="F4" t="str">
+        <v>1.98</v>
+      </c>
+      <c r="G4" t="str">
+        <v>0.074</v>
+      </c>
+      <c r="H4" t="str">
+        <v>9.6</v>
       </c>
     </row>
     <row r="5">
@@ -458,8 +494,20 @@
       <c r="C5" t="str">
         <v>23.7/54</v>
       </c>
+      <c r="D5" t="str">
+        <v>45</v>
+      </c>
       <c r="E5" t="str">
-        <v>45</v>
+        <v>216</v>
+      </c>
+      <c r="F5" t="str">
+        <v>4.95</v>
+      </c>
+      <c r="G5" t="str">
+        <v>0.012</v>
+      </c>
+      <c r="H5" t="str">
+        <v>10.2</v>
       </c>
     </row>
     <row r="6">
@@ -472,8 +520,20 @@
       <c r="C6" t="str">
         <v>21.6/142</v>
       </c>
+      <c r="D6" t="str">
+        <v>21.7/200</v>
+      </c>
       <c r="E6" t="str">
-        <v>21.7/200</v>
+        <v>265</v>
+      </c>
+      <c r="F6" t="str">
+        <v>9.82</v>
+      </c>
+      <c r="G6" t="str">
+        <v>0.052</v>
+      </c>
+      <c r="H6" t="str">
+        <v>20.47</v>
       </c>
     </row>
     <row r="7">
@@ -486,8 +546,20 @@
       <c r="C7" t="str">
         <v>21.5/149</v>
       </c>
+      <c r="D7" t="str">
+        <v>21.5/203</v>
+      </c>
       <c r="E7" t="str">
-        <v>21.5/203</v>
+        <v>163</v>
+      </c>
+      <c r="F7" t="str">
+        <v>3.47</v>
+      </c>
+      <c r="G7" t="str">
+        <v>0.16</v>
+      </c>
+      <c r="H7" t="str">
+        <v>116</v>
       </c>
     </row>
     <row r="8">
@@ -500,8 +572,20 @@
       <c r="C8" t="str">
         <v>21.4/156</v>
       </c>
+      <c r="D8" t="str">
+        <v>214</v>
+      </c>
       <c r="E8" t="str">
-        <v>214</v>
+        <v>204</v>
+      </c>
+      <c r="F8" t="str">
+        <v>6.9</v>
+      </c>
+      <c r="G8" t="str">
+        <v>0.115</v>
+      </c>
+      <c r="H8" t="str">
+        <v>31</v>
       </c>
     </row>
     <row r="9">
@@ -514,8 +598,20 @@
       <c r="C9" t="str">
         <v>21.9/124</v>
       </c>
+      <c r="D9" t="str">
+        <v>21.8/212</v>
+      </c>
       <c r="E9" t="str">
-        <v>21.8/212</v>
+        <v>798</v>
+      </c>
+      <c r="F9" t="str">
+        <v>0.5</v>
+      </c>
+      <c r="G9" t="str">
+        <v>0.005</v>
+      </c>
+      <c r="H9" t="str">
+        <v>142</v>
       </c>
     </row>
     <row r="10">
@@ -528,8 +624,20 @@
       <c r="C10" t="str">
         <v>21.7/136</v>
       </c>
+      <c r="D10" t="str">
+        <v>21.3/213</v>
+      </c>
       <c r="E10" t="str">
-        <v>21.3/213</v>
+        <v>226</v>
+      </c>
+      <c r="F10" t="str">
+        <v>9.14</v>
+      </c>
+      <c r="G10" t="str">
+        <v>0.104</v>
+      </c>
+      <c r="H10" t="str">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
